--- a/resources/database/database.xlsx
+++ b/resources/database/database.xlsx
@@ -37,7 +37,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>{"CZ1003": {"index": "10107", "event_id": ["k9kq4a92rvsuof848p64qb62mk", "l1ocskfklcvqj6tneauvc6e1ak", "dvc066mbmfj21blbvs90e94qfg", "p7v64gljntjm6dt5jpu9dls41c"]}, "MH8300": {"index": "71045", "event_id": ["uknghol4uefqtnf9ccm6biumjs", "dpa5f2ctu4tlqr4teuvs3j8um4"]}, "MH1812": {"index": "10504", "event_id": ["fq321rn0atikai6bhb0lh6pgps", "em5nuegdetb0g86lc7j4h2t954", "rko759209enqjh0uoordeecidk", "eqa7pq008m43us69ut6r2qtl6s"]}, "HW0188": {"index": "50221", "event_id": ["q4uu7pkd14271nnghtdktov808"]}, "CZ1004": {"index": "10630", "event_id": ["tk66t9lc09ut1jnd3mfo4o6tek", "k6dk6mkpko212sbn559i973j48", "vopatsn6lt7s7642kar86i5n94"]}, "CZ1005": {"index": "10117", "event_id": ["54ksnilmc98qubp3mbuptndnsk", "iiubcslvkrvnf0o25f2u31k80k", "48j8bvfpms4t5tb2jer7ttrn80", "hthljv2itputjvmb08gsj9s0kk"]}}</t>
+    <t>{"BU8101": {"index": "00137", "event_id": ["ptuo36lgnta5326m27kn6fombc", "72eqe6tcb5kt2n80omddv6ljcg"]}, "CZ1003": {"index": "10107", "event_id": ["k9kq4a92rvsuof848p64qb62mk", "l1ocskfklcvqj6tneauvc6e1ak", "dvc066mbmfj21blbvs90e94qfg", "p7v64gljntjm6dt5jpu9dls41c"]}, "MH8300": {"index": "71045", "event_id": ["uknghol4uefqtnf9ccm6biumjs", "dpa5f2ctu4tlqr4teuvs3j8um4"]}, "MH1812": {"index": "10504", "event_id": ["fq321rn0atikai6bhb0lh6pgps", "em5nuegdetb0g86lc7j4h2t954", "rko759209enqjh0uoordeecidk", "eqa7pq008m43us69ut6r2qtl6s"]}, "HW0188": {"index": "50221", "event_id": ["q4uu7pkd14271nnghtdktov808"]}, "CZ1004": {"index": "10630", "event_id": ["tk66t9lc09ut1jnd3mfo4o6tek", "k6dk6mkpko212sbn559i973j48", "vopatsn6lt7s7642kar86i5n94"]}, "CZ1005": {"index": "10117", "event_id": ["54ksnilmc98qubp3mbuptndnsk", "iiubcslvkrvnf0o25f2u31k80k", "48j8bvfpms4t5tb2jer7ttrn80", "hthljv2itputjvmb08gsj9s0kk"]}}</t>
   </si>
   <si>
     <t>{"f63kvobicrgkfpq9aet18nouag": {"name": "Tuition Grant Signing", "location": "LKC", "start": "2017-10-10 10:30", "end": "2017-10-10 12:30"}}</t>

--- a/resources/database/database.xlsx
+++ b/resources/database/database.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans-PC\Documents\bot\resources\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>chat_id</t>
   </si>
@@ -35,38 +40,31 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>{"BU8101": {"index": "00137", "event_id": ["ptuo36lgnta5326m27kn6fombc", "72eqe6tcb5kt2n80omddv6ljcg"]}, "CZ1003": {"index": "10107", "event_id": ["k9kq4a92rvsuof848p64qb62mk", "l1ocskfklcvqj6tneauvc6e1ak", "dvc066mbmfj21blbvs90e94qfg", "p7v64gljntjm6dt5jpu9dls41c"]}, "MH8300": {"index": "71045", "event_id": ["uknghol4uefqtnf9ccm6biumjs", "dpa5f2ctu4tlqr4teuvs3j8um4"]}, "MH1812": {"index": "10504", "event_id": ["fq321rn0atikai6bhb0lh6pgps", "em5nuegdetb0g86lc7j4h2t954", "rko759209enqjh0uoordeecidk", "eqa7pq008m43us69ut6r2qtl6s"]}, "HW0188": {"index": "50221", "event_id": ["q4uu7pkd14271nnghtdktov808"]}, "CZ1004": {"index": "10630", "event_id": ["tk66t9lc09ut1jnd3mfo4o6tek", "k6dk6mkpko212sbn559i973j48", "vopatsn6lt7s7642kar86i5n94"]}, "CZ1005": {"index": "10117", "event_id": ["54ksnilmc98qubp3mbuptndnsk", "iiubcslvkrvnf0o25f2u31k80k", "48j8bvfpms4t5tb2jer7ttrn80", "hthljv2itputjvmb08gsj9s0kk"]}}</t>
-  </si>
-  <si>
-    <t>{"f63kvobicrgkfpq9aet18nouag": {"name": "Tuition Grant Signing", "location": "LKC", "start": "2017-10-10 10:30", "end": "2017-10-10 12:30"}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,16 +80,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,26 +386,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="16.7109375"/>
-    <col customWidth="1" max="8" min="5" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="9" style="1" width="9.140625"/>
+    <col min="1" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +415,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>441680843</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -425,14 +428,8 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>